--- a/mineralization/Catalogue of min model parameters July 2015.xlsx
+++ b/mineralization/Catalogue of min model parameters July 2015.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16720" windowHeight="16300" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10940" windowHeight="16300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -73,8 +73,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.000000"/>
   </numFmts>
@@ -123,7 +124,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -132,22 +133,95 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="44">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="34" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="36" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="38" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="40" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -477,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -489,12 +563,12 @@
     <col min="3" max="4" width="10.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:13">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -508,7 +582,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -529,17 +603,17 @@
         <v>27.792000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="4">
         <v>7.8890000000000002E-3</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="4">
         <v>5.4879999999999998E-3</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="4">
         <v>5.8900000000000003E-3</v>
       </c>
       <c r="E5">
@@ -550,7 +624,7 @@
         <v>6.6885E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -563,7 +637,7 @@
       <c r="D6" s="2">
         <v>-19.841999999999999</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <f t="shared" si="0"/>
         <v>-4.4215</v>
       </c>
@@ -571,7 +645,7 @@
         <v>-4.4215</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -584,14 +658,11 @@
       <c r="D7">
         <v>35</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="5">
         <v>35</v>
       </c>
-      <c r="G7">
-        <v>52.786999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -601,7 +672,7 @@
       <c r="C8">
         <v>49.542999999999999</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>53.23</v>
       </c>
       <c r="E8">
@@ -609,14 +680,14 @@
         <v>52.786999999999999</v>
       </c>
       <c r="G8">
-        <v>3.3530000000000001E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>52.786999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="4">
         <v>3.2399999999999998E-3</v>
       </c>
       <c r="C9">
@@ -630,10 +701,10 @@
         <v>3.3530000000000001E-3</v>
       </c>
       <c r="G9">
-        <v>17.127600000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>3.3530000000000001E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -646,12 +717,15 @@
       <c r="D10">
         <v>20.428999999999998</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="3">
         <f t="shared" si="0"/>
         <v>17.127600000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10">
+        <v>17.127600000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -668,7 +742,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -679,7 +753,7 @@
         <v>-44</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -689,8 +763,29 @@
       <c r="C14">
         <v>77</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="G14">
+        <v>27.792000000000002</v>
+      </c>
+      <c r="H14">
+        <v>6.6885E-3</v>
+      </c>
+      <c r="I14">
+        <v>-4.4215</v>
+      </c>
+      <c r="J14">
+        <v>52.786999999999999</v>
+      </c>
+      <c r="K14">
+        <v>3.3530000000000001E-3</v>
+      </c>
+      <c r="L14">
+        <v>17.127600000000001</v>
+      </c>
+      <c r="M14">
+        <v>17.127600000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
         <v>14</v>
       </c>
